--- a/Banco Central/10/Encuesta de Operadores Financieros (EOF) 2009 a 2021 - Mensual.xlsx
+++ b/Banco Central/10/Encuesta de Operadores Financieros (EOF) 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>Serie</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6486,6 +6489,53 @@
         <v>730</v>
       </c>
     </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141">
+        <v>0.3</v>
+      </c>
+      <c r="C141">
+        <v>0.3</v>
+      </c>
+      <c r="D141">
+        <v>0.4</v>
+      </c>
+      <c r="E141">
+        <v>3.4</v>
+      </c>
+      <c r="F141">
+        <v>3.1</v>
+      </c>
+      <c r="G141">
+        <v>0.75</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1.5</v>
+      </c>
+      <c r="K141">
+        <v>1.5</v>
+      </c>
+      <c r="L141">
+        <v>2.13</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>750</v>
+      </c>
+      <c r="O141">
+        <v>747.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
